--- a/JellyFish_project/dataFiles/data.xlsx
+++ b/JellyFish_project/dataFiles/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14625" windowHeight="2910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14625" windowHeight="5550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>deepak</t>
+  </si>
+  <si>
+    <t>125554ghh</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +492,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
